--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -65,12 +65,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -184,7 +191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -235,7 +242,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -351,7 +358,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -438,11 +445,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="204712144"/>
-        <c:axId val="204713320"/>
+        <c:axId val="202178216"/>
+        <c:axId val="202176648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204712144"/>
+        <c:axId val="202178216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,10 +500,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204713320"/>
+        <c:crossAx val="202176648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -504,7 +511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204713320"/>
+        <c:axId val="202176648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204712144"/>
+        <c:crossAx val="202178216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -551,7 +558,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -581,7 +588,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -660,7 +667,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -711,7 +718,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -827,7 +834,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -914,11 +921,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="381919408"/>
-        <c:axId val="381917840"/>
+        <c:axId val="202179000"/>
+        <c:axId val="310909208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="381919408"/>
+        <c:axId val="202179000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,10 +976,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381917840"/>
+        <c:crossAx val="310909208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381917840"/>
+        <c:axId val="310909208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381919408"/>
+        <c:crossAx val="202179000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1027,7 +1034,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,7 +1064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1136,7 +1143,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1187,7 +1194,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1303,7 +1310,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1390,11 +1397,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="384875528"/>
-        <c:axId val="384868472"/>
+        <c:axId val="310912344"/>
+        <c:axId val="310913912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384875528"/>
+        <c:axId val="310912344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,10 +1452,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384868472"/>
+        <c:crossAx val="310913912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1456,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384868472"/>
+        <c:axId val="310913912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384875528"/>
+        <c:crossAx val="310912344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1503,7 +1510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1533,7 +1540,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1576,7 +1583,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>FIC_BS</a:t>
             </a:r>
           </a:p>
@@ -1591,6 +1598,23 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1603,7 +1627,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>distinguish faults</c:v>
+            <c:v>replacing strategy</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1620,8 +1644,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.0088383838383847E-2"/>
-                  <c:y val="6.2072336265884528E-2"/>
+                  <c:x val="-3.6079545454545454E-2"/>
+                  <c:y val="4.829667304374706E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1638,11 +1662,11 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2026515151515151E-2"/>
-                  <c:y val="3.1036168132942327E-2"/>
+                  <c:x val="-2.806186868686876E-2"/>
+                  <c:y val="3.1047861242408825E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -1681,153 +1705,10 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>accurate</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>parent</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>children</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>miss</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>redundant</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$34:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="444"/>
-        <c:axId val="533871776"/>
-        <c:axId val="533873344"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>replacing strategy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1899,7 +1780,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1909,17 +1789,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="533871776"/>
-        <c:axId val="533873344"/>
-      </c:lineChart>
+        <c:gapWidth val="444"/>
+        <c:axId val="310914696"/>
+        <c:axId val="310909600"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>regard as one fault</c:v>
           </c:tx>
@@ -1931,15 +1810,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="6"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -1947,46 +1826,6 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.2159090909090909E-2"/>
-                  <c:y val="-1.0345389377647443E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.819444444444452E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2010,7 +1849,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2096,11 +1935,156 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532992488"/>
-        <c:axId val="532994056"/>
+        <c:axId val="310914696"/>
+        <c:axId val="310909600"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>distinguish faults</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>accurate</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>parent</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>children</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>miss</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>redundant</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="310911560"/>
+        <c:axId val="310914304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="533871776"/>
+        <c:axId val="310914696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,10 +2135,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533873344"/>
+        <c:crossAx val="310909600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533873344"/>
+        <c:axId val="310909600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,12 +2156,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533871776"/>
+        <c:crossAx val="310914696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="532994056"/>
+        <c:axId val="310914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,23 +2171,53 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532992488"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310911560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532992488"/>
+        <c:axId val="310911560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532994056"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="310914304"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2242,7 +2256,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2272,7 +2286,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2348,7 +2362,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2451,7 +2465,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2536,9 +2550,154 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="295733776"/>
-        <c:axId val="295734168"/>
+        <c:axId val="310913128"/>
+        <c:axId val="310908032"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>regard as one fault</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>accurate</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>parent</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>children</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>miss</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>redundant</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="310913128"/>
+        <c:axId val="310908032"/>
+      </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -2595,7 +2754,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2681,156 +2840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295733776"/>
-        <c:axId val="295734168"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>regard as one fault</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>accurate</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>parent</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>children</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>miss</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>redundant</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$33:$L$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="295734952"/>
-        <c:axId val="295734560"/>
+        <c:axId val="310910776"/>
+        <c:axId val="310913520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295733776"/>
+        <c:axId val="310913128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,10 +2895,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295734168"/>
+        <c:crossAx val="310908032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2892,7 +2906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295734168"/>
+        <c:axId val="310908032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,12 +2916,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295733776"/>
+        <c:crossAx val="310913128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="295734560"/>
+        <c:axId val="310913520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,15 +2958,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295734952"/>
+        <c:crossAx val="310910776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="295734952"/>
+        <c:axId val="310910776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,7 +2976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295734560"/>
+        <c:crossAx val="310913520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3002,7 +3016,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3032,7 +3046,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3108,7 +3122,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3201,7 +3215,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3286,8 +3300,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="295927896"/>
-        <c:axId val="295926720"/>
+        <c:axId val="311645400"/>
+        <c:axId val="311643048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3345,7 +3359,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3431,8 +3445,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295927896"/>
-        <c:axId val="295926720"/>
+        <c:axId val="311645400"/>
+        <c:axId val="311643048"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3490,7 +3504,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3576,11 +3590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295933776"/>
-        <c:axId val="295929856"/>
+        <c:axId val="311645792"/>
+        <c:axId val="311646576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295927896"/>
+        <c:axId val="311645400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,10 +3645,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295926720"/>
+        <c:crossAx val="311643048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3642,7 +3656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295926720"/>
+        <c:axId val="311643048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,12 +3666,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295927896"/>
+        <c:crossAx val="311645400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="295929856"/>
+        <c:axId val="311646576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,15 +3708,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295933776"/>
+        <c:crossAx val="311645792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="295933776"/>
+        <c:axId val="311645792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,7 +3726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295929856"/>
+        <c:crossAx val="311646576"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3752,7 +3766,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3782,7 +3796,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3993,6 +4007,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
@@ -6090,6 +6144,530 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6769,8 +7347,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>319086</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -8492,30 +9070,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -8571,7 +9149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8621,7 +9199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -8671,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8721,7 +9299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -8771,7 +9349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -8821,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8871,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8921,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8971,7 +9549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -9021,7 +9599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -9071,7 +9649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -9121,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9171,7 +9749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -9221,7 +9799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -9271,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -9321,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9371,7 +9949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -9421,7 +9999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -9471,7 +10049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -9521,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B33">
         <f t="array" ref="B33:R33">B2:R2 + B7:R7+B12:R12+B17:R17+B22:R22</f>
         <v>12</v>
@@ -9575,7 +10153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B34">
         <f t="array" ref="B34:R34">B3:R3 + B8:R8+B13:R13+B18:R18+B23:R23</f>
         <v>10</v>
@@ -9629,7 +10207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B35">
         <f t="array" ref="B35:R35">B4:R4 + B9:R9+B14:R14+B19:R19+B24:R24</f>
         <v>11</v>
@@ -9684,8 +10262,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -65,17 +65,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,7 +191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -242,7 +242,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -358,7 +358,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -445,11 +445,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="202178216"/>
-        <c:axId val="202176648"/>
+        <c:axId val="284306184"/>
+        <c:axId val="284305400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202178216"/>
+        <c:axId val="284306184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,10 +500,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202176648"/>
+        <c:crossAx val="284305400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202176648"/>
+        <c:axId val="284305400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202178216"/>
+        <c:crossAx val="284306184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,7 +558,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -588,7 +588,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -667,7 +667,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -718,7 +718,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -834,7 +834,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -921,11 +921,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="202179000"/>
-        <c:axId val="310909208"/>
+        <c:axId val="284306576"/>
+        <c:axId val="284303440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202179000"/>
+        <c:axId val="284306576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,10 +976,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310909208"/>
+        <c:crossAx val="284303440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -987,7 +987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310909208"/>
+        <c:axId val="284303440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202179000"/>
+        <c:crossAx val="284306576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1034,7 +1034,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1064,7 +1064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1143,7 +1143,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1194,7 +1194,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1238,10 +1238,10 @@
                 <c:v>children</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -1310,7 +1310,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1354,10 +1354,10 @@
                 <c:v>children</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -1397,11 +1397,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="310912344"/>
-        <c:axId val="310913912"/>
+        <c:axId val="285504816"/>
+        <c:axId val="285504424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="310912344"/>
+        <c:axId val="285504816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1452,10 +1452,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310913912"/>
+        <c:crossAx val="285504424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310913912"/>
+        <c:axId val="285504424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310912344"/>
+        <c:crossAx val="285504816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,7 +1510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1540,7 +1540,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1612,13 +1612,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.401104797979798E-2"/>
+          <c:y val="0.26822227652872815"/>
+          <c:w val="0.8999447601010101"/>
+          <c:h val="0.65818154664928863"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1705,7 +1715,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1790,8 +1800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="310914696"/>
-        <c:axId val="310909600"/>
+        <c:axId val="285504032"/>
+        <c:axId val="285505208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1826,6 +1836,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6079545454545454E-2"/>
+                  <c:y val="-2.0690778755294886E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1849,7 +1879,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1892,10 +1922,10 @@
                 <c:v>children</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -1935,8 +1965,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310914696"/>
-        <c:axId val="310909600"/>
+        <c:axId val="285504032"/>
+        <c:axId val="285505208"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1971,6 +2001,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.0345389377647316E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1994,7 +2044,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2080,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310911560"/>
-        <c:axId val="310914304"/>
+        <c:axId val="285505992"/>
+        <c:axId val="285505600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310914696"/>
+        <c:axId val="285504032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2135,10 +2185,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310909600"/>
+        <c:crossAx val="285505208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310909600"/>
+        <c:axId val="285505208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,12 +2206,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310914696"/>
+        <c:crossAx val="285504032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="310914304"/>
+        <c:axId val="285505600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,15 +2248,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310911560"/>
+        <c:crossAx val="285505992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="310911560"/>
+        <c:axId val="285505992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310914304"/>
+        <c:crossAx val="285505600"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2256,7 +2306,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2286,7 +2336,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2362,7 +2412,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2373,9 +2423,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.0555555555555555E-2"/>
+          <c:x val="1.3600378787878788E-2"/>
           <c:y val="0.35927493438320213"/>
-          <c:w val="0.90286351706036749"/>
+          <c:w val="0.91035542929292934"/>
           <c:h val="0.55580963837853603"/>
         </c:manualLayout>
       </c:layout>
@@ -2465,7 +2515,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2550,8 +2600,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="310913128"/>
-        <c:axId val="310908032"/>
+        <c:axId val="285890000"/>
+        <c:axId val="285892352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2609,7 +2659,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2652,10 +2702,10 @@
                 <c:v>children</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -2695,8 +2745,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310913128"/>
-        <c:axId val="310908032"/>
+        <c:axId val="285890000"/>
+        <c:axId val="285892352"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2754,7 +2804,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2840,11 +2890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310910776"/>
-        <c:axId val="310913520"/>
+        <c:axId val="285891176"/>
+        <c:axId val="285890392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310913128"/>
+        <c:axId val="285890000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,10 +2945,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310908032"/>
+        <c:crossAx val="285892352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2906,7 +2956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310908032"/>
+        <c:axId val="285892352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,12 +2966,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310913128"/>
+        <c:crossAx val="285890000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="310913520"/>
+        <c:axId val="285890392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,15 +3008,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310910776"/>
+        <c:crossAx val="285891176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="310910776"/>
+        <c:axId val="285891176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2976,7 +3026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310913520"/>
+        <c:crossAx val="285890392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3046,7 +3096,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3122,13 +3172,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3646148989898991E-2"/>
+          <c:y val="0.27219687717689384"/>
+          <c:w val="0.9003096590909091"/>
+          <c:h val="0.65311637509148468"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3215,7 +3275,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3300,8 +3360,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="311645400"/>
-        <c:axId val="311643048"/>
+        <c:axId val="285892744"/>
+        <c:axId val="285893136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3359,7 +3419,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3402,10 +3462,10 @@
                 <c:v>children</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -3445,8 +3505,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="311645400"/>
-        <c:axId val="311643048"/>
+        <c:axId val="285892744"/>
+        <c:axId val="285893136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3504,7 +3564,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3590,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="311645792"/>
-        <c:axId val="311646576"/>
+        <c:axId val="286179248"/>
+        <c:axId val="286182776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311645400"/>
+        <c:axId val="285892744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3645,10 +3705,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311643048"/>
+        <c:crossAx val="285893136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3656,7 +3716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311643048"/>
+        <c:axId val="285893136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,12 +3726,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311645400"/>
+        <c:crossAx val="285892744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311646576"/>
+        <c:axId val="286182776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,15 +3768,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311645792"/>
+        <c:crossAx val="286179248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="311645792"/>
+        <c:axId val="286179248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,7 +3786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311646576"/>
+        <c:crossAx val="286182776"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3766,7 +3826,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3796,7 +3856,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7286,13 +7346,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:colOff>404811</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>19987</xdr:colOff>
+      <xdr:colOff>19986</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>20437</xdr:rowOff>
     </xdr:to>
@@ -7316,15 +7376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>315262</xdr:colOff>
+      <xdr:colOff>229537</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>39487</xdr:rowOff>
+      <xdr:rowOff>68062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9070,30 +9130,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -9149,7 +9209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9199,7 +9259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -9249,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9299,7 +9359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -9349,7 +9409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -9399,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -9449,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -9499,7 +9559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -9549,7 +9609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -9599,7 +9659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -9649,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -9699,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9749,7 +9809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -9799,7 +9859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -9849,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -9899,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9949,7 +10009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -9999,7 +10059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -10049,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -10099,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:18">
       <c r="B33">
         <f t="array" ref="B33:R33">B2:R2 + B7:R7+B12:R12+B17:R17+B22:R22</f>
         <v>12</v>
@@ -10153,7 +10213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:18">
       <c r="B34">
         <f t="array" ref="B34:R34">B3:R3 + B8:R8+B13:R13+B18:R18+B23:R23</f>
         <v>10</v>
@@ -10207,7 +10267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:18">
       <c r="B35">
         <f t="array" ref="B35:R35">B4:R4 + B9:R9+B14:R14+B19:R19+B24:R24</f>
         <v>11</v>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -203,10 +203,126 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>regard as one fault</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>accurate</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>parent</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>children</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>ignore</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>irrelevant</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>distinguish faults</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -318,122 +434,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>distinguish faults</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>accurate</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>parent</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>children</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>ignore</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>irrelevant</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$34:$F$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -445,11 +445,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="284306184"/>
-        <c:axId val="284305400"/>
+        <c:axId val="282494696"/>
+        <c:axId val="282495872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="284306184"/>
+        <c:axId val="282494696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284305400"/>
+        <c:crossAx val="282495872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284305400"/>
+        <c:axId val="282495872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284306184"/>
+        <c:crossAx val="282494696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -679,10 +679,126 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>regard as one fault</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>accurate</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>parent</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>children</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>ignore</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>irrelevant</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$34:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>distinguish faults</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -794,122 +910,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>distinguish faults</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>accurate</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>parent</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>children</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>ignore</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>irrelevant</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$34:$L$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -921,11 +921,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="284306576"/>
-        <c:axId val="284303440"/>
+        <c:axId val="284007856"/>
+        <c:axId val="284005112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="284306576"/>
+        <c:axId val="284007856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284303440"/>
+        <c:crossAx val="284005112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -987,7 +987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284303440"/>
+        <c:axId val="284005112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284306576"/>
+        <c:crossAx val="284007856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1155,10 +1155,126 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>regard as one fault</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>accurate</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>parent</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>children</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>ignore</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>irrelevant</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$34:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>distinguish faults</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1270,122 +1386,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>distinguish faults</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="5"/>
-              <c:pt idx="0">
-                <c:v>accurate</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>parent</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>children</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>ignore</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>irrelevant</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$34:$R$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
@@ -1397,11 +1397,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="285504816"/>
-        <c:axId val="285504424"/>
+        <c:axId val="284005504"/>
+        <c:axId val="284007072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285504816"/>
+        <c:axId val="284005504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285504424"/>
+        <c:crossAx val="284007072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285504424"/>
+        <c:axId val="284007072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285504816"/>
+        <c:crossAx val="284005504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1800,8 +1800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="285504032"/>
-        <c:axId val="285505208"/>
+        <c:axId val="284005896"/>
+        <c:axId val="284006288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1810,7 +1810,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>regard as one fault</c:v>
+            <c:v>distinguish faults</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -1965,8 +1965,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285504032"/>
-        <c:axId val="285505208"/>
+        <c:axId val="284005896"/>
+        <c:axId val="284006288"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1975,7 +1975,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>distinguish faults</c:v>
+            <c:v>regard as one fault</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2130,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285505992"/>
-        <c:axId val="285505600"/>
+        <c:axId val="283952272"/>
+        <c:axId val="284006680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285504032"/>
+        <c:axId val="284005896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285505208"/>
+        <c:crossAx val="284006288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285505208"/>
+        <c:axId val="284006288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,12 +2206,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285504032"/>
+        <c:crossAx val="284005896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285505600"/>
+        <c:axId val="284006680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,12 +2251,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285505992"/>
+        <c:crossAx val="283952272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="285505992"/>
+        <c:axId val="283952272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285505600"/>
+        <c:crossAx val="284006680"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2435,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>replacing strategy</c:v>
           </c:tx>
@@ -2600,17 +2600,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="285890000"/>
-        <c:axId val="285892352"/>
+        <c:axId val="283951880"/>
+        <c:axId val="283949920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>regard as one fault</c:v>
+            <c:v>distinguish faults</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2745,17 +2745,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285890000"/>
-        <c:axId val="285892352"/>
+        <c:axId val="283951880"/>
+        <c:axId val="283949920"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>distinguish faults</c:v>
+            <c:v>regard as one fault</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -2890,11 +2890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285891176"/>
-        <c:axId val="285890392"/>
+        <c:axId val="283950312"/>
+        <c:axId val="283951096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285890000"/>
+        <c:axId val="283951880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285892352"/>
+        <c:crossAx val="283949920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2956,7 +2956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285892352"/>
+        <c:axId val="283949920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,12 +2966,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285890000"/>
+        <c:crossAx val="283951880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="285890392"/>
+        <c:axId val="283951096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,12 +3011,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285891176"/>
+        <c:crossAx val="283950312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="285891176"/>
+        <c:axId val="283950312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285890392"/>
+        <c:crossAx val="283951096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3195,7 +3195,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>replacing strategy</c:v>
           </c:tx>
@@ -3360,17 +3360,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="285892744"/>
-        <c:axId val="285893136"/>
+        <c:axId val="284312320"/>
+        <c:axId val="284314280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>regard as one fault</c:v>
+            <c:v>distinguish faults</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3505,17 +3505,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="285892744"/>
-        <c:axId val="285893136"/>
+        <c:axId val="284312320"/>
+        <c:axId val="284314280"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>distinguish faults</c:v>
+            <c:v>regard as one fault</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3650,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286179248"/>
-        <c:axId val="286182776"/>
+        <c:axId val="284313888"/>
+        <c:axId val="284312712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285892744"/>
+        <c:axId val="284312320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,7 +3708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285893136"/>
+        <c:crossAx val="284314280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3716,7 +3716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285893136"/>
+        <c:axId val="284314280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,12 +3726,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="285892744"/>
+        <c:crossAx val="284312320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286182776"/>
+        <c:axId val="284312712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,12 +3771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286179248"/>
+        <c:crossAx val="284313888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="286179248"/>
+        <c:axId val="284313888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286182776"/>
+        <c:crossAx val="284312712"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9130,8 +9130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N76" sqref="N76"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X63" sqref="X63:Y93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -445,11 +445,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="282494696"/>
-        <c:axId val="282495872"/>
+        <c:axId val="281626112"/>
+        <c:axId val="281625328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="282494696"/>
+        <c:axId val="281626112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282495872"/>
+        <c:crossAx val="281625328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282495872"/>
+        <c:axId val="281625328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282494696"/>
+        <c:crossAx val="281626112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -921,11 +921,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="284007856"/>
-        <c:axId val="284005112"/>
+        <c:axId val="281627680"/>
+        <c:axId val="281626896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="284007856"/>
+        <c:axId val="281627680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284005112"/>
+        <c:crossAx val="281626896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -987,7 +987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284005112"/>
+        <c:axId val="281626896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284007856"/>
+        <c:crossAx val="281627680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1397,11 +1397,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="284005504"/>
-        <c:axId val="284007072"/>
+        <c:axId val="281628072"/>
+        <c:axId val="282865560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="284005504"/>
+        <c:axId val="281628072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284007072"/>
+        <c:crossAx val="282865560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284007072"/>
+        <c:axId val="282865560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1473,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284005504"/>
+        <c:crossAx val="281628072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1800,8 +1800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="284005896"/>
-        <c:axId val="284006288"/>
+        <c:axId val="282865952"/>
+        <c:axId val="282864384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1965,8 +1965,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284005896"/>
-        <c:axId val="284006288"/>
+        <c:axId val="282865952"/>
+        <c:axId val="282864384"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2130,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283952272"/>
-        <c:axId val="284006680"/>
+        <c:axId val="282864776"/>
+        <c:axId val="282866344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284005896"/>
+        <c:axId val="282865952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284006288"/>
+        <c:crossAx val="282864384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284006288"/>
+        <c:axId val="282864384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,12 +2206,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284005896"/>
+        <c:crossAx val="282865952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284006680"/>
+        <c:axId val="282866344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,12 +2251,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283952272"/>
+        <c:crossAx val="282864776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="283952272"/>
+        <c:axId val="282864776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284006680"/>
+        <c:crossAx val="282866344"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,8 +2600,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="283951880"/>
-        <c:axId val="283949920"/>
+        <c:axId val="282865168"/>
+        <c:axId val="282867128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2745,8 +2745,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283951880"/>
-        <c:axId val="283949920"/>
+        <c:axId val="282865168"/>
+        <c:axId val="282867128"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2890,11 +2890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283950312"/>
-        <c:axId val="283951096"/>
+        <c:axId val="283355504"/>
+        <c:axId val="282867520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283951880"/>
+        <c:axId val="282865168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283949920"/>
+        <c:crossAx val="282867128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2956,7 +2956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283949920"/>
+        <c:axId val="282867128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,12 +2966,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283951880"/>
+        <c:crossAx val="282865168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283951096"/>
+        <c:axId val="282867520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,12 +3011,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283950312"/>
+        <c:crossAx val="283355504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="283950312"/>
+        <c:axId val="283355504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283951096"/>
+        <c:crossAx val="282867520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3360,8 +3360,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="284312320"/>
-        <c:axId val="284314280"/>
+        <c:axId val="283353544"/>
+        <c:axId val="283353936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3505,8 +3505,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284312320"/>
-        <c:axId val="284314280"/>
+        <c:axId val="283353544"/>
+        <c:axId val="283353936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3650,11 +3650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284313888"/>
-        <c:axId val="284312712"/>
+        <c:axId val="283354720"/>
+        <c:axId val="283355896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="284312320"/>
+        <c:axId val="283353544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,7 +3708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284314280"/>
+        <c:crossAx val="283353936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3716,7 +3716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284314280"/>
+        <c:axId val="283353936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,12 +3726,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284312320"/>
+        <c:crossAx val="283353544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="284312712"/>
+        <c:axId val="283355896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,12 +3771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284313888"/>
+        <c:crossAx val="283354720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="284313888"/>
+        <c:axId val="283354720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284312712"/>
+        <c:crossAx val="283355896"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7255,16 +7255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7286,15 +7286,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
+      <xdr:colOff>166687</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>505762</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86212</xdr:rowOff>
+      <xdr:colOff>343837</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9130,7 +9130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X63" sqref="X63:Y93"/>
     </sheetView>
   </sheetViews>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -283,7 +283,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -399,7 +399,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -445,11 +445,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="281626112"/>
-        <c:axId val="281625328"/>
+        <c:axId val="286317960"/>
+        <c:axId val="286315608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="281626112"/>
+        <c:axId val="286317960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281625328"/>
+        <c:crossAx val="286315608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281625328"/>
+        <c:axId val="286315608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281626112"/>
+        <c:crossAx val="286317960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -594,7 +594,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup paperSize="151" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -612,7 +612,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -759,7 +758,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -875,7 +874,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -921,11 +920,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="281627680"/>
-        <c:axId val="281626896"/>
+        <c:axId val="286314432"/>
+        <c:axId val="286316392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="281627680"/>
+        <c:axId val="286314432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281626896"/>
+        <c:crossAx val="286316392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -987,7 +986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281626896"/>
+        <c:axId val="286316392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +996,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281627680"/>
+        <c:crossAx val="286314432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1088,7 +1087,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1235,7 +1233,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -1351,7 +1349,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -1397,11 +1395,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="281628072"/>
-        <c:axId val="282865560"/>
+        <c:axId val="286316000"/>
+        <c:axId val="286315216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="281628072"/>
+        <c:axId val="286316000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282865560"/>
+        <c:crossAx val="286315216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1463,7 +1461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282865560"/>
+        <c:axId val="286315216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1473,7 +1471,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281628072"/>
+        <c:crossAx val="286316000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1564,7 +1562,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1800,8 +1797,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="282865952"/>
-        <c:axId val="282864384"/>
+        <c:axId val="286317568"/>
+        <c:axId val="286632000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1919,7 +1916,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -1965,8 +1962,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="282865952"/>
-        <c:axId val="282864384"/>
+        <c:axId val="286317568"/>
+        <c:axId val="286632000"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2130,11 +2127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="282864776"/>
-        <c:axId val="282866344"/>
+        <c:axId val="286634352"/>
+        <c:axId val="286631608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282865952"/>
+        <c:axId val="286317568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282864384"/>
+        <c:crossAx val="286632000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282864384"/>
+        <c:axId val="286632000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,12 +2203,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282865952"/>
+        <c:crossAx val="286317568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="282866344"/>
+        <c:axId val="286631608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,12 +2248,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282864776"/>
+        <c:crossAx val="286634352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="282864776"/>
+        <c:axId val="286634352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282866344"/>
+        <c:crossAx val="286631608"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2360,7 +2357,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2556,13 +2552,13 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -2600,8 +2596,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="282865168"/>
-        <c:axId val="282867128"/>
+        <c:axId val="286633176"/>
+        <c:axId val="286632784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2699,7 +2695,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -2745,8 +2741,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="282865168"/>
-        <c:axId val="282867128"/>
+        <c:axId val="286633176"/>
+        <c:axId val="286632784"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2844,13 +2840,13 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -2890,11 +2886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283355504"/>
-        <c:axId val="282867520"/>
+        <c:axId val="286633568"/>
+        <c:axId val="286631216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282865168"/>
+        <c:axId val="286633176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +2944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282867128"/>
+        <c:crossAx val="286632784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2956,7 +2952,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282867128"/>
+        <c:axId val="286632784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,12 +2962,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282865168"/>
+        <c:crossAx val="286633176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="282867520"/>
+        <c:axId val="286631216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3011,12 +3007,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283355504"/>
+        <c:crossAx val="286633568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="283355504"/>
+        <c:axId val="286633568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +3022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282867520"/>
+        <c:crossAx val="286631216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3120,7 +3116,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3316,13 +3311,13 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -3360,8 +3355,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="283353544"/>
-        <c:axId val="283353936"/>
+        <c:axId val="286632392"/>
+        <c:axId val="286889304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3459,7 +3454,7 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
                 <c:v>ignore</c:v>
@@ -3505,8 +3500,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283353544"/>
-        <c:axId val="283353936"/>
+        <c:axId val="286632392"/>
+        <c:axId val="286889304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3604,13 +3599,13 @@
                 <c:v>parent</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>children</c:v>
+                <c:v>sub</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>miss</c:v>
+                <c:v>ignore</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>redundant</c:v>
+                <c:v>irrelevant</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
@@ -3650,11 +3645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="283354720"/>
-        <c:axId val="283355896"/>
+        <c:axId val="286890872"/>
+        <c:axId val="286892048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283353544"/>
+        <c:axId val="286632392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,7 +3703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283353936"/>
+        <c:crossAx val="286889304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3716,7 +3711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283353936"/>
+        <c:axId val="286889304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,12 +3721,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283353544"/>
+        <c:crossAx val="286632392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283355896"/>
+        <c:axId val="286892048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,12 +3766,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283354720"/>
+        <c:crossAx val="286890872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="283354720"/>
+        <c:axId val="286890872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="283355896"/>
+        <c:crossAx val="286892048"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3862,7 +3857,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup paperSize="151" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7318,13 +7313,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>239062</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114787</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7345,16 +7340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19986</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>20437</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>115236</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>182362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7375,16 +7370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>229537</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>68062</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343837</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>172837</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7405,16 +7400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>319086</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>452436</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>496236</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>19986</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7439,7 +7434,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Custom 2">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7456,7 +7451,7 @@
         <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="953734"/>
       </a:accent2>
       <a:accent3>
         <a:srgbClr val="9BBB59"/>
@@ -7721,1417 +7716,12 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride4.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
-<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <a:clrScheme name="Office">
-    <a:dk1>
-      <a:sysClr val="windowText" lastClr="000000"/>
-    </a:dk1>
-    <a:lt1>
-      <a:sysClr val="window" lastClr="FFFFFF"/>
-    </a:lt1>
-    <a:dk2>
-      <a:srgbClr val="1F497D"/>
-    </a:dk2>
-    <a:lt2>
-      <a:srgbClr val="EEECE1"/>
-    </a:lt2>
-    <a:accent1>
-      <a:srgbClr val="4F81BD"/>
-    </a:accent1>
-    <a:accent2>
-      <a:srgbClr val="C0504D"/>
-    </a:accent2>
-    <a:accent3>
-      <a:srgbClr val="9BBB59"/>
-    </a:accent3>
-    <a:accent4>
-      <a:srgbClr val="8064A2"/>
-    </a:accent4>
-    <a:accent5>
-      <a:srgbClr val="4BACC6"/>
-    </a:accent5>
-    <a:accent6>
-      <a:srgbClr val="F79646"/>
-    </a:accent6>
-    <a:hlink>
-      <a:srgbClr val="0000FF"/>
-    </a:hlink>
-    <a:folHlink>
-      <a:srgbClr val="800080"/>
-    </a:folHlink>
-  </a:clrScheme>
-  <a:fontScheme name="Office">
-    <a:majorFont>
-      <a:latin typeface="Cambria" panose="020F0302020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Times New Roman"/>
-      <a:font script="Hebr" typeface="Times New Roman"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="MoolBoran"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Times New Roman"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:majorFont>
-    <a:minorFont>
-      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-      <a:ea typeface=""/>
-      <a:cs typeface=""/>
-      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-      <a:font script="Hang" typeface="맑은 고딕"/>
-      <a:font script="Hans" typeface="宋体"/>
-      <a:font script="Hant" typeface="新細明體"/>
-      <a:font script="Arab" typeface="Arial"/>
-      <a:font script="Hebr" typeface="Arial"/>
-      <a:font script="Thai" typeface="Tahoma"/>
-      <a:font script="Ethi" typeface="Nyala"/>
-      <a:font script="Beng" typeface="Vrinda"/>
-      <a:font script="Gujr" typeface="Shruti"/>
-      <a:font script="Khmr" typeface="DaunPenh"/>
-      <a:font script="Knda" typeface="Tunga"/>
-      <a:font script="Guru" typeface="Raavi"/>
-      <a:font script="Cans" typeface="Euphemia"/>
-      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-      <a:font script="Thaa" typeface="MV Boli"/>
-      <a:font script="Deva" typeface="Mangal"/>
-      <a:font script="Telu" typeface="Gautami"/>
-      <a:font script="Taml" typeface="Latha"/>
-      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-      <a:font script="Orya" typeface="Kalinga"/>
-      <a:font script="Mlym" typeface="Kartika"/>
-      <a:font script="Laoo" typeface="DokChampa"/>
-      <a:font script="Sinh" typeface="Iskoola Pota"/>
-      <a:font script="Mong" typeface="Mongolian Baiti"/>
-      <a:font script="Viet" typeface="Arial"/>
-      <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      <a:font script="Geor" typeface="Sylfaen"/>
-    </a:minorFont>
-  </a:fontScheme>
-  <a:fmtScheme name="Office">
-    <a:fillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="50000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="35000">
-            <a:schemeClr val="phClr">
-              <a:tint val="37000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:tint val="15000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="1"/>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:shade val="51000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="80000">
-            <a:schemeClr val="phClr">
-              <a:shade val="93000"/>
-              <a:satMod val="130000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="94000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="16200000" scaled="0"/>
-      </a:gradFill>
-    </a:fillStyleLst>
-    <a:lnStyleLst>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-            <a:satMod val="105000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-      <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="solid"/>
-      </a:ln>
-    </a:lnStyleLst>
-    <a:effectStyleLst>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </a:effectStyle>
-      <a:effectStyle>
-        <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront">
-            <a:rot lat="0" lon="0" rev="0"/>
-          </a:camera>
-          <a:lightRig rig="threePt" dir="t">
-            <a:rot lat="0" lon="0" rev="1200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="63500" h="25400"/>
-        </a:sp3d>
-      </a:effectStyle>
-    </a:effectStyleLst>
-    <a:bgFillStyleLst>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="40000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="40000">
-            <a:schemeClr val="phClr">
-              <a:tint val="45000"/>
-              <a:shade val="99000"/>
-              <a:satMod val="350000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="20000"/>
-              <a:satMod val="255000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-      </a:gradFill>
-      <a:gradFill rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr">
-              <a:tint val="80000"/>
-              <a:satMod val="300000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:shade val="30000"/>
-              <a:satMod val="200000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-    </a:bgFillStyleLst>
-  </a:fmtScheme>
-</a:themeOverride>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X63" sqref="X63:Y93"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -445,11 +446,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="286317960"/>
-        <c:axId val="286315608"/>
+        <c:axId val="253111208"/>
+        <c:axId val="204994872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286317960"/>
+        <c:axId val="253111208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286315608"/>
+        <c:crossAx val="204994872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -511,7 +512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286315608"/>
+        <c:axId val="204994872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +522,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286317960"/>
+        <c:crossAx val="253111208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -594,7 +595,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="151" orientation="portrait"/>
+    <c:pageSetup paperSize="9" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -920,11 +921,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="286314432"/>
-        <c:axId val="286316392"/>
+        <c:axId val="204994480"/>
+        <c:axId val="204995656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286314432"/>
+        <c:axId val="204994480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286316392"/>
+        <c:crossAx val="204995656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -986,7 +987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286316392"/>
+        <c:axId val="204995656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286314432"/>
+        <c:crossAx val="204994480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1395,11 +1396,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="286316000"/>
-        <c:axId val="286315216"/>
+        <c:axId val="204994088"/>
+        <c:axId val="204996440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286316000"/>
+        <c:axId val="204994088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286315216"/>
+        <c:crossAx val="204996440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1461,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286315216"/>
+        <c:axId val="204996440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1472,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286316000"/>
+        <c:crossAx val="204994088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1544,7 +1545,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup paperSize="151" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1586,7 +1587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1663,9 +1663,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1684,9 +1682,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1725,7 +1721,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1797,8 +1792,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="286317568"/>
-        <c:axId val="286632000"/>
+        <c:axId val="204997616"/>
+        <c:axId val="205794720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -1848,9 +1843,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1888,7 +1881,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1962,8 +1954,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286317568"/>
-        <c:axId val="286632000"/>
+        <c:axId val="204997616"/>
+        <c:axId val="205794720"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2013,9 +2005,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2053,7 +2043,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2127,11 +2116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286634352"/>
-        <c:axId val="286631608"/>
+        <c:axId val="205801384"/>
+        <c:axId val="205798640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286317568"/>
+        <c:axId val="204997616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286632000"/>
+        <c:crossAx val="205794720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2193,7 +2182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286632000"/>
+        <c:axId val="205794720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,12 +2192,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286317568"/>
+        <c:crossAx val="204997616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286631608"/>
+        <c:axId val="205798640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,12 +2237,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286634352"/>
+        <c:crossAx val="205801384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="286634352"/>
+        <c:axId val="205801384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286631608"/>
+        <c:crossAx val="205798640"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2280,7 +2269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2385,7 +2373,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2462,9 +2449,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2483,9 +2468,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2524,7 +2507,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2596,8 +2578,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="286633176"/>
-        <c:axId val="286632784"/>
+        <c:axId val="205798248"/>
+        <c:axId val="205801776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2667,7 +2649,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2741,8 +2722,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286633176"/>
-        <c:axId val="286632784"/>
+        <c:axId val="205798248"/>
+        <c:axId val="205801776"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -2812,7 +2793,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2886,11 +2866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286633568"/>
-        <c:axId val="286631216"/>
+        <c:axId val="205800992"/>
+        <c:axId val="205799424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286633176"/>
+        <c:axId val="205798248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2944,7 +2924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286632784"/>
+        <c:crossAx val="205801776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2952,7 +2932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286632784"/>
+        <c:axId val="205801776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2962,12 +2942,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286633176"/>
+        <c:crossAx val="205798248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286631216"/>
+        <c:axId val="205799424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,12 +2987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286633568"/>
+        <c:crossAx val="205800992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="286633568"/>
+        <c:axId val="205800992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,7 +3002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286631216"/>
+        <c:crossAx val="205799424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3039,7 +3019,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3098,7 +3077,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup paperSize="151" orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3144,7 +3123,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3221,9 +3199,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -3242,9 +3218,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3283,7 +3257,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3355,8 +3328,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="444"/>
-        <c:axId val="286632392"/>
-        <c:axId val="286889304"/>
+        <c:axId val="205800600"/>
+        <c:axId val="205799816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3426,7 +3399,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3500,8 +3472,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286632392"/>
-        <c:axId val="286889304"/>
+        <c:axId val="205800600"/>
+        <c:axId val="205799816"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="stacked"/>
@@ -3571,7 +3543,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3645,11 +3616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="286890872"/>
-        <c:axId val="286892048"/>
+        <c:axId val="205795504"/>
+        <c:axId val="205795112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286632392"/>
+        <c:axId val="205800600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286889304"/>
+        <c:crossAx val="205799816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3711,7 +3682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286889304"/>
+        <c:axId val="205799816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3721,12 +3692,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286632392"/>
+        <c:crossAx val="205800600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286892048"/>
+        <c:axId val="205795112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,12 +3737,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286890872"/>
+        <c:crossAx val="205795504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="286890872"/>
+        <c:axId val="205795504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3781,7 +3752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286892048"/>
+        <c:crossAx val="205795112"/>
         <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3798,7 +3769,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7401,15 +7371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>452436</xdr:colOff>
+      <xdr:colOff>430024</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19986</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658721</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>90206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7434,7 +7404,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Custom 2">
+    <a:clrScheme name="Custom 19">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7448,10 +7418,10 @@
         <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="6792C5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="953734"/>
+        <a:srgbClr val="7F2F2D"/>
       </a:accent2>
       <a:accent3>
         <a:srgbClr val="9BBB59"/>
@@ -7720,8 +7690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
